--- a/Analise_QT_VL_Beneficiário/VV_extract_sqlbi_componente.xlsx
+++ b/Analise_QT_VL_Beneficiário/VV_extract_sqlbi_componente.xlsx
@@ -83,7 +83,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>CONPONENTE</t>
+          <t>COMPONENTE</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -49664,7 +49664,7 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>select  fc.IND_INTERNACAO INTERNACAO,
-        DESC_CLASSIFICACAO_DESPESA CONPONENTE,
+        DESC_CLASSIFICACAO_DESPESA COMPONENTE,
         substr(fc.ID_TEMPO_MES_ANO_REF,1,4) ano,
         substr(fc.ID_TEMPO_MES_ANO_REF,1,6) anomes,
         sum(nvl(fc.VAL_APROVADO_ITEM,0)) + sum(nvl(fc.VALOR_PAGO_REVISAO,0))  VT,        
